--- a/SEP490_G67/MyAPI/wwwroot/templates/TemplateVehicle.xlsx
+++ b/SEP490_G67/MyAPI/wwwroot/templates/TemplateVehicle.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vehicle" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -528,21 +528,21 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>29</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H4" s="10" t="s">
         <v>10</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -657,7 +657,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -665,7 +665,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -673,7 +673,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -681,7 +681,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -689,7 +689,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -697,7 +697,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="12" t="s">
         <v>19</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -715,7 +715,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -723,7 +723,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -731,7 +731,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
